--- a/templates/QA-Automation/RSTK-9707-CRUD operation on Manufacturing Labor Grade.xlsx
+++ b/templates/QA-Automation/RSTK-9707-CRUD operation on Manufacturing Labor Grade.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\provar\rsqasampleproj\rsqasampleproj\templates\QARSF\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\provar\rsqasampleproj\rsqasampleproj\templates\QA-Automation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A4DC15E-F2E3-482D-BA7A-4447928A68E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E31D5019-7A60-4100-8F01-3FA6FCC65F55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -68,20 +68,13 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="7"/>
-      <color rgb="FF4A4A56"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -104,9 +97,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -390,36 +382,36 @@
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="B1" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.21875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18.21875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
     </row>
@@ -471,36 +463,36 @@
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="D16" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.21875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18.21875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
     </row>
